--- a/public/src/rg_base.xlsx
+++ b/public/src/rg_base.xlsx
@@ -22,14 +22,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="81">
+  <si>
+    <t xml:space="preserve">z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATÓRIO DE DESPESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
   <si>
     <t xml:space="preserve">_</t>
   </si>
   <si>
-    <t xml:space="preserve">RELATÓRIO DE DESPESA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nome do Solicitante</t>
   </si>
   <si>
@@ -60,9 +66,6 @@
     <t xml:space="preserve">finalidade_solicitante</t>
   </si>
   <si>
-    <t xml:space="preserve">v</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dados do Processo</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t xml:space="preserve">uf_processo</t>
   </si>
   <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dados para Depósito</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">descricao_deposito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Coordenador</t>
@@ -267,7 +276,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -287,11 +296,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="0"/>
     </font>
     <font>
@@ -382,16 +386,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,11 +407,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,15 +415,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,10 +432,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -514,13 +514,13 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="0.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.85"/>
@@ -549,13 +549,13 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -576,13 +576,13 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -603,13 +603,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -627,20 +627,20 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -658,20 +658,20 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -679,17 +679,17 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -698,13 +698,13 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -712,17 +712,17 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -731,16 +731,19 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -755,18 +758,21 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -781,29 +787,32 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -811,29 +820,32 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -841,18 +853,21 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -860,29 +875,32 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -890,24 +908,24 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -915,57 +933,60 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -980,18 +1001,21 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1001,27 +1025,30 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1031,95 +1058,104 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1129,27 +1165,30 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1159,27 +1198,30 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1194,18 +1236,21 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1220,16 +1265,19 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1244,16 +1292,19 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1268,16 +1319,19 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1292,527 +1346,527 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1942,7 @@
   </sheetPr>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1964,7 +2018,7 @@
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1974,7 +2028,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -1998,17 +2052,17 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2035,7 +2089,7 @@
     <row r="9" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2052,18 +2106,18 @@
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2088,7 +2142,7 @@
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2096,13 +2150,13 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -2125,7 +2179,7 @@
     <row r="15" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2142,13 +2196,13 @@
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2157,7 +2211,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17" s="10"/>
     </row>
@@ -2180,7 +2234,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2293,7 +2347,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2309,114 +2363,114 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>60</v>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>63</v>
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>76</v>
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="s">
-        <v>77</v>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
